--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7F74CA-0640-4390-BBDF-F8D6140764FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F2B51-366D-42ED-8ED4-2551BBF9A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Data</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Coluna2</t>
+  </si>
+  <si>
+    <t>1250 reais (G-S)</t>
+  </si>
+  <si>
+    <t>Avião da Grécia para Suiça</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -585,10 +591,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="8" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -615,6 +617,13 @@
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="12" xfId="6" applyBorder="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -643,10 +652,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="-0.249977111117893"/>
         </left>
@@ -655,100 +664,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -792,21 +707,25 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="-0.249977111117893"/>
         </left>
         <right style="thin">
           <color theme="4" tint="-0.249977111117893"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -826,6 +745,28 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -840,6 +781,28 @@
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -874,6 +837,28 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -898,6 +883,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color theme="4" tint="-0.249977111117893"/>
@@ -905,6 +906,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="-0.249977111117893"/>
@@ -912,12 +919,14 @@
         <right style="thin">
           <color theme="4" tint="-0.249977111117893"/>
         </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -998,14 +1007,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}" name="Despesas34" displayName="Despesas34" ref="A2:E9" totalsRowCount="1" headerRowDxfId="0" totalsRowDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}" name="Despesas34" displayName="Despesas34" ref="A2:E9" totalsRowCount="1" headerRowDxfId="13" totalsRowDxfId="10" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A2:E8" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BE5774F8-3D3B-4BD6-AE94-1FF1AC4D65AC}" name="Data" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{0A16F98A-F7D1-4252-B11B-E033E70EA158}" name="Descrição da Despesa" dataDxfId="4" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{EE168068-1FA4-4934-B3F9-78C2616A50BF}" name="Valor" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{F95EA42B-7C3F-4C15-A5D0-2009982AE3F7}" name="Coluna1" dataDxfId="2" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{09FA7907-E59F-4EE8-A7BB-00CDDBCBF60D}" name="Coluna2" dataDxfId="1" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{BE5774F8-3D3B-4BD6-AE94-1FF1AC4D65AC}" name="Data" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0A16F98A-F7D1-4252-B11B-E033E70EA158}" name="Descrição da Despesa" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{EE168068-1FA4-4934-B3F9-78C2616A50BF}" name="Valor" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F95EA42B-7C3F-4C15-A5D0-2009982AE3F7}" name="Coluna1" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{09FA7907-E59F-4EE8-A7BB-00CDDBCBF60D}" name="Coluna2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Relatório de despesas de viagem" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1245,17 +1254,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="90.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="78.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
@@ -1276,6 +1285,23 @@
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1250</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,26 +1380,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1385,106 +1412,108 @@
       <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <f ca="1">TODAY()-30</f>
-        <v>45138</v>
-      </c>
-      <c r="B3" s="19" t="s">
+        <v>45139</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>10000</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <f ca="1">TODAY()-30</f>
-        <v>45138</v>
-      </c>
-      <c r="B4" s="19" t="s">
+        <v>45139</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>3015</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <f ca="1">TODAY()-30</f>
-        <v>45138</v>
-      </c>
-      <c r="B5" s="19" t="s">
+        <v>45139</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>7800</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <f t="shared" ref="A6:A7" ca="1" si="0">TODAY()-30</f>
-        <v>45138</v>
-      </c>
-      <c r="B6" s="19" t="s">
+        <v>45139</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>45138</v>
-      </c>
-      <c r="B7" s="19" t="s">
+        <v>45139</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <f ca="1">TODAY()-25</f>
-        <v>45143</v>
-      </c>
-      <c r="B8" s="19" t="s">
+        <v>45144</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>SUBTOTAL(109,Despesas34[Valor])</f>
         <v>20815</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F2B51-366D-42ED-8ED4-2551BBF9A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F6E9E-F592-46D1-B195-1E4E0607148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$2</definedName>
     <definedName name="TaxaDeQuilometragem">#REF!</definedName>
     <definedName name="TítuloColuna1">#REF!</definedName>
     <definedName name="TotalDoReembolso">#REF!</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Data</t>
   </si>
@@ -141,6 +142,9 @@
   </si>
   <si>
     <t>Avião da Grécia para Suiça</t>
+  </si>
+  <si>
+    <t>Hotel</t>
   </si>
 </sst>
 </file>
@@ -152,7 +156,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="2" tint="-0.89996032593768116"/>
@@ -265,8 +269,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,12 +333,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -390,21 +408,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="3"/>
       </left>
       <right/>
@@ -469,27 +472,127 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="7"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="7"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="7"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="7"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="4" tint="0.59999389629810485"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -540,7 +643,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -550,76 +653,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="8" applyFill="1" applyBorder="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="8" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="8" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="8" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="15" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="12" xfId="15" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="12" xfId="6" applyBorder="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="7" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -647,162 +765,152 @@
     <cellStyle name="Título 4" xfId="14" builtinId="19" hidden="1" customBuiltin="1"/>
     <cellStyle name="Total" xfId="3" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </left>
         <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -816,7 +924,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -824,14 +932,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
-        <top/>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
@@ -839,69 +951,172 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
+        <right/>
         <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </bottom>
         <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </left>
         <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </right>
         <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </bottom>
       </border>
     </dxf>
@@ -914,18 +1129,18 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </left>
         <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </right>
         <top/>
         <bottom/>
         <vertical style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </horizontal>
       </border>
     </dxf>
@@ -990,9 +1205,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Relatório de despesas de viagem" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Relatório de despesas de viagem" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1007,14 +1222,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}" name="Despesas34" displayName="Despesas34" ref="A2:E9" totalsRowCount="1" headerRowDxfId="13" totalsRowDxfId="10" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}" name="Despesas34" displayName="Despesas34" ref="A2:E9" totalsRowCount="1" headerRowDxfId="14" totalsRowDxfId="11" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="10">
   <autoFilter ref="A2:E8" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BE5774F8-3D3B-4BD6-AE94-1FF1AC4D65AC}" name="Data" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0A16F98A-F7D1-4252-B11B-E033E70EA158}" name="Descrição da Despesa" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{EE168068-1FA4-4934-B3F9-78C2616A50BF}" name="Valor" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F95EA42B-7C3F-4C15-A5D0-2009982AE3F7}" name="Coluna1" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{09FA7907-E59F-4EE8-A7BB-00CDDBCBF60D}" name="Coluna2" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BE5774F8-3D3B-4BD6-AE94-1FF1AC4D65AC}" name="Data" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0A16F98A-F7D1-4252-B11B-E033E70EA158}" name="Descrição da Despesa" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EE168068-1FA4-4934-B3F9-78C2616A50BF}" name="Valor" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F95EA42B-7C3F-4C15-A5D0-2009982AE3F7}" name="Coluna1" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{09FA7907-E59F-4EE8-A7BB-00CDDBCBF60D}" name="Coluna2" dataDxfId="5" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Relatório de despesas de viagem" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1252,115 +1467,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="78.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="111.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="14">
         <v>1250</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3083</v>
+      </c>
+    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="8"/>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="29">
+        <f>SUMIF(B2:B100,G20, E2:E100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="29">
+        <f>SUMIF(B1:B99,G21, E1:E99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="29">
+        <f>SUMIF(B2:B100,G22, E2:E100)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="29">
+        <f>SUMIF(B3:B101,G23, E3:E101)</f>
+        <v>3083</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E2" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{804FFBA0-8CD6-41DB-BA4E-0137961AF33E}">
       <formula1>$G$14:$G$16</formula1>
@@ -1380,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1394,126 +1670,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="19">
         <f ca="1">TODAY()-30</f>
         <v>45139</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>10000</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <f ca="1">TODAY()-30</f>
         <v>45139</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>3015</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <f ca="1">TODAY()-30</f>
         <v>45139</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>7800</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <f t="shared" ref="A6:A7" ca="1" si="0">TODAY()-30</f>
         <v>45139</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>45139</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="C7" s="21">
+        <v>6352.68</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <f ca="1">TODAY()-25</f>
         <v>45144</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26">
         <f>SUBTOTAL(109,Despesas34[Valor])</f>
-        <v>20815</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+        <v>27167.68</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F6E9E-F592-46D1-B195-1E4E0607148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9CD92A-FA90-492C-94BA-2756B540CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Data</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Hotel</t>
+  </si>
+  <si>
+    <t>Atividade/Passeio</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -419,52 +422,12 @@
       <left style="thin">
         <color theme="3"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
       <right style="thin">
         <color theme="3"/>
       </right>
       <top style="thin">
         <color theme="3"/>
       </top>
-      <bottom style="thin">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="3"/>
       </bottom>
@@ -596,6 +559,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
@@ -653,96 +640,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="7" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="8" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="8" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="8" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="8" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="15" applyBorder="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="12" xfId="15" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="12" xfId="6" applyBorder="1" applyProtection="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="8" xfId="6" applyBorder="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="7" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -801,6 +788,26 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -834,6 +841,28 @@
           <color theme="4" tint="0.59999389629810485"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -875,6 +904,28 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -911,6 +962,28 @@
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -947,92 +1020,6 @@
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1225,11 +1212,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}" name="Despesas34" displayName="Despesas34" ref="A2:E9" totalsRowCount="1" headerRowDxfId="14" totalsRowDxfId="11" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="10">
   <autoFilter ref="A2:E8" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BE5774F8-3D3B-4BD6-AE94-1FF1AC4D65AC}" name="Data" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0A16F98A-F7D1-4252-B11B-E033E70EA158}" name="Descrição da Despesa" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{EE168068-1FA4-4934-B3F9-78C2616A50BF}" name="Valor" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F95EA42B-7C3F-4C15-A5D0-2009982AE3F7}" name="Coluna1" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{09FA7907-E59F-4EE8-A7BB-00CDDBCBF60D}" name="Coluna2" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BE5774F8-3D3B-4BD6-AE94-1FF1AC4D65AC}" name="Data" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0A16F98A-F7D1-4252-B11B-E033E70EA158}" name="Descrição da Despesa" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{EE168068-1FA4-4934-B3F9-78C2616A50BF}" name="Valor" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F95EA42B-7C3F-4C15-A5D0-2009982AE3F7}" name="Coluna1" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{09FA7907-E59F-4EE8-A7BB-00CDDBCBF60D}" name="Coluna2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Relatório de despesas de viagem" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1467,172 +1454,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="111.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="8">
         <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>3083</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="27" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="28" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="28" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="5"/>
-      <c r="H17" s="7" t="s">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="28"/>
+      <c r="H17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="30"/>
+      <c r="H18" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="10" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="9" t="s">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="29">
-        <f>SUMIF(B2:B100,G20, E2:E100)</f>
+      <c r="H21" s="23">
+        <f>SUMIF(B2:B101,G21, E2:E101)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G21" s="9" t="s">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="29">
-        <f>SUMIF(B1:B99,G21, E1:E99)</f>
+      <c r="H22" s="23">
+        <f>SUMIF(B1:B100,G22, E1:E100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="9" t="s">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="29">
-        <f>SUMIF(B2:B100,G22, E2:E100)</f>
+      <c r="H23" s="23">
+        <f>SUMIF(B2:B101,G23, E2:E101)</f>
         <v>1250</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G23" s="9" t="s">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="29">
-        <f>SUMIF(B3:B101,G23, E3:E101)</f>
+      <c r="H24" s="23">
+        <f>SUMIF(B3:B102,G24, E3:E102)</f>
         <v>3083</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="26"/>
+      <c r="G25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="23">
+        <f>SUMIF(B4:B103,G25, E4:E103)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1647,7 @@
       <formula1>$G$14:$G$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{C56F21DC-4C61-4B0F-BC9F-5B11F090759A}">
-      <formula1>$H$14:$H$17</formula1>
+      <formula1>$H$14:$H$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{99B81ED1-57C7-4035-822C-D9D4EF99B171}">
       <formula1>$I$14:$I$16</formula1>
@@ -1657,7 +1662,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1670,128 +1675,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="13">
         <f ca="1">TODAY()-30</f>
         <v>45139</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="15">
         <v>10000</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="13">
         <f ca="1">TODAY()-30</f>
         <v>45139</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="15">
         <v>3015</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="13">
         <f ca="1">TODAY()-30</f>
         <v>45139</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="15">
         <v>7800</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="13">
         <f t="shared" ref="A6:A7" ca="1" si="0">TODAY()-30</f>
         <v>45139</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="13">
         <f t="shared" ca="1" si="0"/>
         <v>45139</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="15">
         <v>6352.68</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="13">
         <f ca="1">TODAY()-25</f>
         <v>45144</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20">
         <f>SUBTOTAL(109,Despesas34[Valor])</f>
         <v>27167.68</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9CD92A-FA90-492C-94BA-2756B540CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246C097-30BD-45EA-8F84-FBAB58B0A22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,27 +709,27 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1523,67 +1523,67 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="28"/>
-      <c r="H17" s="29" t="s">
+      <c r="G17" s="27"/>
+      <c r="H17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="30"/>
-      <c r="H18" s="29" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="2"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
@@ -1631,8 +1631,8 @@
       </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="26"/>
-      <c r="G25" s="25" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="24" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="23">
@@ -1662,7 +1662,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1675,13 +1675,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246C097-30BD-45EA-8F84-FBAB58B0A22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABAA7AE-B853-4BFC-B3C7-A492B9AC563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -1456,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1661,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1703,7 +1703,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <f ca="1">TODAY()-30</f>
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>4</v>
@@ -1717,7 +1717,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <f ca="1">TODAY()-30</f>
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -1733,7 +1733,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <f ca="1">TODAY()-30</f>
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>27</v>
@@ -1751,7 +1751,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <f t="shared" ref="A6:A7" ca="1" si="0">TODAY()-30</f>
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -1763,7 +1763,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>2</v>
@@ -1777,7 +1777,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <f ca="1">TODAY()-25</f>
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>9</v>

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f5de3440c112c3/Documentos/EuroTrip2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABAA7AE-B853-4BFC-B3C7-A492B9AC563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{CABAA7AE-B853-4BFC-B3C7-A492B9AC563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766A03F6-456E-4E31-BEA3-6EBD50B5466A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Data</t>
   </si>
@@ -51,24 +51,12 @@
     <t>Hospedagem</t>
   </si>
   <si>
-    <t>Trem</t>
-  </si>
-  <si>
-    <t>Passagem Avião</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
     <t xml:space="preserve">Passagem Entre Países (I-G / G-S) </t>
   </si>
   <si>
-    <t>R-G</t>
-  </si>
-  <si>
-    <t>G-S</t>
-  </si>
-  <si>
     <t>Alimentação</t>
   </si>
   <si>
@@ -129,15 +117,9 @@
     <t>1200 euros</t>
   </si>
   <si>
-    <t>Coluna1</t>
-  </si>
-  <si>
     <t>100 francos</t>
   </si>
   <si>
-    <t>Coluna2</t>
-  </si>
-  <si>
     <t>1250 reais (G-S)</t>
   </si>
   <si>
@@ -148,6 +130,12 @@
   </si>
   <si>
     <t>Atividade/Passeio</t>
+  </si>
+  <si>
+    <t>Descrição 2</t>
+  </si>
+  <si>
+    <t>Passagem Avião (BR-EU)</t>
   </si>
 </sst>
 </file>
@@ -281,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +624,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -730,6 +724,24 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="12" xfId="15" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="12" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -788,26 +800,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -841,28 +833,6 @@
           <color theme="4" tint="0.59999389629810485"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -904,28 +874,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -962,28 +910,6 @@
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1020,6 +946,92 @@
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1212,11 +1224,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}" name="Despesas34" displayName="Despesas34" ref="A2:E9" totalsRowCount="1" headerRowDxfId="14" totalsRowDxfId="11" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="10">
   <autoFilter ref="A2:E8" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BE5774F8-3D3B-4BD6-AE94-1FF1AC4D65AC}" name="Data" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0A16F98A-F7D1-4252-B11B-E033E70EA158}" name="Descrição da Despesa" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{EE168068-1FA4-4934-B3F9-78C2616A50BF}" name="Valor" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F95EA42B-7C3F-4C15-A5D0-2009982AE3F7}" name="Coluna1" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{09FA7907-E59F-4EE8-A7BB-00CDDBCBF60D}" name="Coluna2" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BE5774F8-3D3B-4BD6-AE94-1FF1AC4D65AC}" name="Data" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0A16F98A-F7D1-4252-B11B-E033E70EA158}" name="Descrição da Despesa" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EE168068-1FA4-4934-B3F9-78C2616A50BF}" name="Valor" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F95EA42B-7C3F-4C15-A5D0-2009982AE3F7}" name="Descrição" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{09FA7907-E59F-4EE8-A7BB-00CDDBCBF60D}" name="Descrição 2" dataDxfId="5" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Relatório de despesas de viagem" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1456,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="111.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1473,33 +1485,33 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="8">
         <v>1250</v>
@@ -1507,16 +1519,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8">
         <v>3083</v>
@@ -1524,56 +1536,56 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>17</v>
-      </c>
       <c r="I13" s="26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G14" s="27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" s="27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>18</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>22</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>19</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>23</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G17" s="27"/>
       <c r="H17" s="28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="2"/>
@@ -1588,15 +1600,15 @@
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G20" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G21" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H21" s="23">
         <f>SUMIF(B2:B101,G21, E2:E101)</f>
@@ -1605,7 +1617,7 @@
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G22" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H22" s="23">
         <f>SUMIF(B1:B100,G22, E1:E100)</f>
@@ -1614,7 +1626,7 @@
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G23" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H23" s="23">
         <f>SUMIF(B2:B101,G23, E2:E101)</f>
@@ -1633,7 +1645,7 @@
     <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="25"/>
       <c r="G25" s="24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H25" s="23">
         <f>SUMIF(B4:B103,G25, E4:E103)</f>
@@ -1661,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1688,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1688,25 +1700,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <f ca="1">TODAY()-30</f>
-        <v>45140</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="15">
         <v>10000</v>
@@ -1715,72 +1724,57 @@
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <f ca="1">TODAY()-30</f>
-        <v>45140</v>
-      </c>
+      <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="15">
         <v>3015</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <f ca="1">TODAY()-30</f>
-        <v>45140</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="33">
         <v>7800</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>30</v>
+      <c r="D5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <f t="shared" ref="A6:A7" ca="1" si="0">TODAY()-30</f>
-        <v>45140</v>
-      </c>
+      <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6352.68</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>45140</v>
-      </c>
+      <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15">
-        <v>6352.68</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <f ca="1">TODAY()-25</f>
-        <v>45145</v>
-      </c>
+      <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -1799,21 +1793,13 @@
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1860</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1155</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
@@ -1823,13 +1809,13 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A8" xr:uid="{77A21D03-AD4D-4DAE-97F0-3013B32E8D61}">
-      <formula1>37622</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O título da planilha está nesta célula. Insira os detalhes da viagem nas células de B3 a L7" sqref="A1:C1" xr:uid="{E96AC6F2-D564-4D89-8D04-13B7B0CA835A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o valor das despesas com tarifa aérea nesta coluna, abaixo deste título" sqref="C2" xr:uid="{7F07A1B5-B7CC-4B9A-9307-8187455FB9F5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a descrição da despesa nesta coluna, abaixo deste título" sqref="B2" xr:uid="{63C66ED8-CE4A-4F32-80A9-A844924595B5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da despesa nesta coluna, abaixo deste título " sqref="A2" xr:uid="{A0811B3F-C6CC-452E-9B93-BF8B0C6CE89D}"/>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A8" xr:uid="{77A21D03-AD4D-4DAE-97F0-3013B32E8D61}">
+      <formula1>37622</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f5de3440c112c3/Documentos/EuroTrip2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{CABAA7AE-B853-4BFC-B3C7-A492B9AC563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766A03F6-456E-4E31-BEA3-6EBD50B5466A}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{CABAA7AE-B853-4BFC-B3C7-A492B9AC563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE4F28A-4F4A-4662-BC6E-E8D67E2B6C9D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,27 +721,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="12" xfId="15" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="12" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="12" xfId="15" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="12" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1218,6 +1218,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1469,7 +1473,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="111.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1678,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1687,13 +1691,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1737,17 +1741,17 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>7800</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>25</v>
       </c>
     </row>

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07f5de3440c112c3/Documentos/EuroTrip2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{CABAA7AE-B853-4BFC-B3C7-A492B9AC563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE4F28A-4F4A-4662-BC6E-E8D67E2B6C9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0035C76C-2266-4456-B1F8-F7E0E1F5D85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="3" r:id="rId2"/>
+    <sheet name="Dados Gerais" sheetId="2" r:id="rId1"/>
+    <sheet name="Tipo" sheetId="6" r:id="rId2"/>
+    <sheet name="Finanças" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados Gerais'!$B$1:$F$6</definedName>
     <definedName name="TaxaDeQuilometragem">#REF!</definedName>
     <definedName name="TítuloColuna1">#REF!</definedName>
     <definedName name="TotalDoReembolso">#REF!</definedName>
@@ -40,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
-  <si>
-    <t>Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Total</t>
   </si>
@@ -54,9 +52,6 @@
     <t>Valor</t>
   </si>
   <si>
-    <t xml:space="preserve">Passagem Entre Países (I-G / G-S) </t>
-  </si>
-  <si>
     <t>Alimentação</t>
   </si>
   <si>
@@ -105,24 +100,6 @@
     <t>Moeda</t>
   </si>
   <si>
-    <t>Descrição da Despesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relatório de Despesas </t>
-  </si>
-  <si>
-    <t>Moedas Compradas</t>
-  </si>
-  <si>
-    <t>1200 euros</t>
-  </si>
-  <si>
-    <t>100 francos</t>
-  </si>
-  <si>
-    <t>1250 reais (G-S)</t>
-  </si>
-  <si>
     <t>Avião da Grécia para Suiça</t>
   </si>
   <si>
@@ -132,22 +109,51 @@
     <t>Atividade/Passeio</t>
   </si>
   <si>
-    <t>Descrição 2</t>
-  </si>
-  <si>
-    <t>Passagem Avião (BR-EU)</t>
+    <t>Avião de Roma para Grécia</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Avião do Brasil para Itália</t>
+  </si>
+  <si>
+    <t>Aviaõ da Suiça para Brasil</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Valor Pago</t>
+  </si>
+  <si>
+    <t>Data da Compra</t>
+  </si>
+  <si>
+    <t>Cotação</t>
+  </si>
+  <si>
+    <t>Franco Suiço</t>
+  </si>
+  <si>
+    <t>Data Compra</t>
+  </si>
+  <si>
+    <t>Relatório de Despesas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="2" tint="-0.89996032593768116"/>
@@ -240,21 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="2" tint="-0.89996032593768116"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-0.749992370372631"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -263,13 +254,43 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.89996032593768116"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.89996032593768116"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,36 +333,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -405,45 +420,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7"/>
-      </left>
-      <right style="thin">
-        <color theme="7"/>
-      </right>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4" tint="0.59999389629810485"/>
       </left>
       <right style="thin">
@@ -554,27 +530,268 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color theme="3"/>
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
       </right>
       <top style="thin">
-        <color theme="3"/>
+        <color theme="6" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color theme="3"/>
+        <color theme="6" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="7"/>
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color theme="3"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.59999389629810485"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -624,124 +841,129 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="25" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="28" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="29" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="16" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="16" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="7" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="7" fontId="16" fillId="0" borderId="19" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="8" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="8" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="12" xfId="15" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="8" xfId="6" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="12" xfId="15" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="12" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -764,7 +986,238 @@
     <cellStyle name="Título 4" xfId="14" builtinId="19" hidden="1" customBuiltin="1"/>
     <cellStyle name="Total" xfId="3" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -778,9 +1231,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="0"/>
-        <name val="Calibri Light"/>
+        <name val="Century Gothic"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -788,6 +1241,36 @@
           <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="0.59999389629810485"/>
@@ -796,8 +1279,93 @@
         <top style="thin">
           <color theme="4" tint="0.59999389629810485"/>
         </top>
-        <bottom/>
-      </border>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -812,28 +1380,70 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="0"/>
-        <name val="Calibri Light"/>
+        <name val="Century Gothic"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="9" tint="-0.249977111117893"/>
         </left>
         <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="9" tint="-0.249977111117893"/>
         </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
+        <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -848,30 +1458,102 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="0"/>
-        <name val="Calibri Light"/>
+        <name val="Century Gothic"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="3"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="3"/>
         </left>
         <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="3"/>
         </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
+        <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -886,34 +1568,31 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="0"/>
-        <name val="Calibri Light"/>
+        <name val="Century Gothic"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="9" tint="-0.249977111117893"/>
         </left>
         <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="9" tint="-0.249977111117893"/>
         </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
+        <top/>
         <bottom/>
       </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -923,48 +1602,255 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="9" tint="-0.249977111117893"/>
         </right>
         <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
           <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color theme="4" tint="0.59999389629810485"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -981,12 +1867,49 @@
         <bottom style="thin">
           <color theme="4" tint="0.59999389629810485"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1003,144 +1926,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.59999389629810485"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1204,9 +1989,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Relatório de despesas de viagem" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Relatório de despesas de viagem" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1220,26 +2005,67 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69DD7703-0BD8-4B82-9AFF-159DAE99295A}" name="Tabela2" displayName="Tabela2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="41" tableBorderDxfId="42" totalsRowBorderDxfId="40">
+  <autoFilter ref="A1:F1048576" xr:uid="{69DD7703-0BD8-4B82-9AFF-159DAE99295A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B6E8F726-B334-4E3D-A7E5-DBDA68DB3DF0}" name="Data Compra" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3FB8C669-AEB9-438B-8693-E2C426C5D43A}" name="País" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5A7317E3-4FFD-4E3D-827A-6EF94FBA881B}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F69F8A05-1A4B-40B1-8C19-C5E8BDB67DB6}" name="Descrição" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C2D3DB6E-E0F5-4882-80B9-FC4174513433}" name="Moeda" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2998256C-7016-423D-893B-AF6DBDD2EE3E}" name="Valor" dataDxfId="2" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}" name="Despesas34" displayName="Despesas34" ref="A2:E9" totalsRowCount="1" headerRowDxfId="14" totalsRowDxfId="11" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="A2:E8" xr:uid="{9CBFAF6A-671A-4327-A234-291691FC8518}"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}" name="Tabela1" displayName="Tabela1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+  <autoFilter ref="A1:C6" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{61C04D36-233F-4345-8D0A-BB74D6229B16}" name="Países" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F265D123-9FD0-445E-9F7A-8AED3BF4F64C}" name="Tipos" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{A3022047-1543-4F89-9A41-72885D52B25A}" name="Moedas" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80044C7C-2CF6-437B-A81A-C0DF61DC78FF}" name="Tabela3" displayName="Tabela3" ref="A2:E6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+  <autoFilter ref="A2:E6" xr:uid="{80044C7C-2CF6-437B-A81A-C0DF61DC78FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BE5774F8-3D3B-4BD6-AE94-1FF1AC4D65AC}" name="Data" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0A16F98A-F7D1-4252-B11B-E033E70EA158}" name="Descrição da Despesa" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{EE168068-1FA4-4934-B3F9-78C2616A50BF}" name="Valor" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F95EA42B-7C3F-4C15-A5D0-2009982AE3F7}" name="Descrição" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{09FA7907-E59F-4EE8-A7BB-00CDDBCBF60D}" name="Descrição 2" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A403110D-48A9-4F7C-A320-44029F6CEBE0}" name="Data da Compra" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{7A3CDC48-C265-45A9-9510-767959D4F6BC}" name="Moeda" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{C4C62492-BF0E-46F5-8BC9-B0DFFFE8823E}" name="Cotação" dataDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{70929260-A73D-44EC-A45E-80FEA04E80F4}" name="Quantidade" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{7F51E899-4C24-4DFF-B212-EAFF5707199D}" name="Valor Pago" dataDxfId="22" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}" name="Tabela4" displayName="Tabela4" ref="A8:B13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
+  <autoFilter ref="A8:B13" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1D28A26F-4413-4393-9ACC-14324C9F39A2}" name="Tipo" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{F675DCBD-CF59-4985-9E47-F77D994126D4}" name="Valor" dataDxfId="18" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A6163B19-04FC-45CC-917C-AC85E14F82BC}" name="Tabela5" displayName="Tabela5" ref="A15:A16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27" dataCellStyle="Moeda">
+  <autoFilter ref="A15:A16" xr:uid="{A6163B19-04FC-45CC-917C-AC85E14F82BC}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DD166145-9754-40EE-B979-945A7A702E9D}" name="Total" dataDxfId="15" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUM(B9:B13) + SUM(E3:E4)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Relatório de despesas de viagem" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Lista de detalhes da despesa, como Data, Descrição, Tarifa aérea, Hospedagem, Transporte terrestre, Refeições e gorjetas, Conferências e seminários, Quilômetros, Reembolso por quilometragem, Diversas, Taxa de câmbio da moeda, Moeda de despesa e Total"/>
-    </ext>
-  </extLst>
 </table>
 </file>
 
@@ -1470,360 +2296,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="111.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="37.125" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="40">
+        <v>7064.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="E3" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="40">
+        <v>4842.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1510.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="40">
+        <v>5142.3100000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="40">
         <v>1250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="40">
         <v>3083</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="26" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="D8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="27"/>
-      <c r="H17" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="29"/>
-      <c r="H18" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="23">
-        <f>SUMIF(B2:B101,G21, E2:E101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="23">
-        <f>SUMIF(B1:B100,G22, E1:E100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="23">
-        <f>SUMIF(B2:B101,G23, E2:E101)</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="23">
-        <f>SUMIF(B3:B102,G24, E3:E102)</f>
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="25"/>
-      <c r="G25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="23">
-        <f>SUMIF(B4:B103,G25, E4:E103)</f>
-        <v>0</v>
-      </c>
+      <c r="F8" s="40">
+        <v>5842.63</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{804FFBA0-8CD6-41DB-BA4E-0137961AF33E}">
-      <formula1>$G$14:$G$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{C56F21DC-4C61-4B0F-BC9F-5B11F090759A}">
-      <formula1>$H$14:$H$18</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{99B81ED1-57C7-4035-822C-D9D4EF99B171}">
-      <formula1>$I$14:$I$16</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{804FFBA0-8CD6-41DB-BA4E-0137961AF33E}">
+          <x14:formula1>
+            <xm:f>Tipo!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C56F21DC-4C61-4B0F-BC9F-5B11F090759A}">
+          <x14:formula1>
+            <xm:f>Tipo!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99B81ED1-57C7-4035-822C-D9D4EF99B171}">
+          <x14:formula1>
+            <xm:f>Tipo!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FABF960-F79B-465D-AA83-0514122FABE2}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15">
-        <v>3015</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="32">
-        <v>7800</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15">
-        <v>6352.68</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20">
-        <f>SUBTOTAL(109,Despesas34[Valor])</f>
-        <v>27167.68</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C6" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O título da planilha está nesta célula. Insira os detalhes da viagem nas células de B3 a L7" sqref="A1:C1" xr:uid="{E96AC6F2-D564-4D89-8D04-13B7B0CA835A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o valor das despesas com tarifa aérea nesta coluna, abaixo deste título" sqref="C2" xr:uid="{7F07A1B5-B7CC-4B9A-9307-8187455FB9F5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a descrição da despesa nesta coluna, abaixo deste título" sqref="B2" xr:uid="{63C66ED8-CE4A-4F32-80A9-A844924595B5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da despesa nesta coluna, abaixo deste título " sqref="A2" xr:uid="{A0811B3F-C6CC-452E-9B93-BF8B0C6CE89D}"/>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A8" xr:uid="{77A21D03-AD4D-4DAE-97F0-3013B32E8D61}">
-      <formula1>37622</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="61.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>45168</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5.62</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E3" s="13">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>45168</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6.03</v>
+      </c>
+      <c r="D4" s="14">
+        <v>100</v>
+      </c>
+      <c r="E4" s="13">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11">
+        <f>SUMIF('Dados Gerais'!C2:C97,A9, 'Dados Gerais'!F2:F97)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11">
+        <f>SUMIF('Dados Gerais'!C2:C98,A10, 'Dados Gerais'!F2:F98)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11">
+        <f>SUMIF('Dados Gerais'!C2:C99,A11, 'Dados Gerais'!F2:F99)</f>
+        <v>15668.52</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="19">
+        <f>SUMIF('Dados Gerais'!C2:C100,A12, 'Dados Gerais'!F2:F100)</f>
+        <v>13068.060000000001</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="19">
+        <f>SUMIF('Dados Gerais'!C2:C101,A13, 'Dados Gerais'!F2:F101)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <f>SUM(B9:B13) + SUM(E3:E4)</f>
+        <v>36083.58</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0035C76C-2266-4456-B1F8-F7E0E1F5D85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D83A1EE-034E-44C4-801D-79521A6E046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>Hospedagem</t>
   </si>
@@ -140,6 +137,21 @@
   </si>
   <si>
     <t>Relatório de Despesas</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>POSIÇÃO</t>
+  </si>
+  <si>
+    <t>PAÍS</t>
+  </si>
+  <si>
+    <t>Ranking países (crescente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total: </t>
   </si>
 </sst>
 </file>
@@ -150,10 +162,10 @@
     <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="2" tint="-0.89996032593768116"/>
@@ -289,8 +301,15 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +374,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -717,24 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="9" tint="-0.249977111117893"/>
       </left>
@@ -794,6 +801,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
@@ -841,128 +876,161 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="25" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="28" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="16" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="16" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="16" fillId="0" borderId="19" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="15" fillId="12" borderId="33" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="12" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="12" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="12" borderId="33" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="33" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="25" xfId="12" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="27" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="28" xfId="12" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="29" xfId="12" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="16" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="16" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="16" fillId="0" borderId="19" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="7" fontId="19" fillId="10" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -986,20 +1054,13 @@
     <cellStyle name="Título 4" xfId="14" builtinId="19" hidden="1" customBuiltin="1"/>
     <cellStyle name="Total" xfId="3" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="2" tint="-0.89996032593768116"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+  <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1013,7 +1074,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="2" tint="-0.89996032593768116"/>
+        <color theme="0"/>
         <name val="Century Gothic"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1021,19 +1082,447 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="-0.249977111117893"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="9" tint="-0.249977111117893"/>
         </left>
         <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="9" tint="-0.249977111117893"/>
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="11" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1053,155 +1542,73 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
         <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </top>
         <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="2" tint="-0.89996032593768116"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="2" tint="-0.89996032593768116"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="2" tint="-0.89996032593768116"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="2" tint="-0.89996032593768116"/>
+        <color theme="2" tint="-0.749992370372631"/>
         <name val="Century Gothic"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </left>
         <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </right>
         <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </top>
         <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="2" tint="-0.89996032593768116"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="4" tint="0.59999389629810485"/>
         </bottom>
       </border>
     </dxf>
@@ -1217,6 +1624,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1265,7 +1679,117 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="2" tint="-0.749992370372631"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
         <name val="Century Gothic"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1273,20 +1797,92 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="6" tint="0.39997558519241921"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
         <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="6" tint="0.39997558519241921"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
+          <color theme="6" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1301,631 +1897,22 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
+          <color theme="6" tint="0.39997558519241921"/>
         </left>
         <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
+          <color theme="6" tint="0.39997558519241921"/>
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1989,9 +1976,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Relatório de despesas de viagem" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Relatório de despesas de viagem" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="totalRow" dxfId="43"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2006,66 +1993,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69DD7703-0BD8-4B82-9AFF-159DAE99295A}" name="Tabela2" displayName="Tabela2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="41" tableBorderDxfId="42" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69DD7703-0BD8-4B82-9AFF-159DAE99295A}" name="Tabela2" displayName="Tabela2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="A1:F1048576" xr:uid="{69DD7703-0BD8-4B82-9AFF-159DAE99295A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B6E8F726-B334-4E3D-A7E5-DBDA68DB3DF0}" name="Data Compra" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{3FB8C669-AEB9-438B-8693-E2C426C5D43A}" name="País" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{5A7317E3-4FFD-4E3D-827A-6EF94FBA881B}" name="Tipo" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F69F8A05-1A4B-40B1-8C19-C5E8BDB67DB6}" name="Descrição" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C2D3DB6E-E0F5-4882-80B9-FC4174513433}" name="Moeda" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{2998256C-7016-423D-893B-AF6DBDD2EE3E}" name="Valor" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{B6E8F726-B334-4E3D-A7E5-DBDA68DB3DF0}" name="Data Compra" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{3FB8C669-AEB9-438B-8693-E2C426C5D43A}" name="País" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{5A7317E3-4FFD-4E3D-827A-6EF94FBA881B}" name="Tipo" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{F69F8A05-1A4B-40B1-8C19-C5E8BDB67DB6}" name="Descrição" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{C2D3DB6E-E0F5-4882-80B9-FC4174513433}" name="Moeda" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{2998256C-7016-423D-893B-AF6DBDD2EE3E}" name="Valor" dataDxfId="32" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}" name="Tabela1" displayName="Tabela1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}" name="Tabela1" displayName="Tabela1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A1:C6" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{61C04D36-233F-4345-8D0A-BB74D6229B16}" name="Países" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F265D123-9FD0-445E-9F7A-8AED3BF4F64C}" name="Tipos" dataDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{A3022047-1543-4F89-9A41-72885D52B25A}" name="Moedas" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{61C04D36-233F-4345-8D0A-BB74D6229B16}" name="Países" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{F265D123-9FD0-445E-9F7A-8AED3BF4F64C}" name="Tipos" dataDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{A3022047-1543-4F89-9A41-72885D52B25A}" name="Moedas" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80044C7C-2CF6-437B-A81A-C0DF61DC78FF}" name="Tabela3" displayName="Tabela3" ref="A2:E6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80044C7C-2CF6-437B-A81A-C0DF61DC78FF}" name="Tabela3" displayName="Tabela3" ref="A2:E6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A2:E6" xr:uid="{80044C7C-2CF6-437B-A81A-C0DF61DC78FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A403110D-48A9-4F7C-A320-44029F6CEBE0}" name="Data da Compra" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{7A3CDC48-C265-45A9-9510-767959D4F6BC}" name="Moeda" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{C4C62492-BF0E-46F5-8BC9-B0DFFFE8823E}" name="Cotação" dataDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{70929260-A73D-44EC-A45E-80FEA04E80F4}" name="Quantidade" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{7F51E899-4C24-4DFF-B212-EAFF5707199D}" name="Valor Pago" dataDxfId="22" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{A403110D-48A9-4F7C-A320-44029F6CEBE0}" name="Data da Compra" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7A3CDC48-C265-45A9-9510-767959D4F6BC}" name="Moeda" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{C4C62492-BF0E-46F5-8BC9-B0DFFFE8823E}" name="Cotação" dataDxfId="16" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{70929260-A73D-44EC-A45E-80FEA04E80F4}" name="Quantidade" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{7F51E899-4C24-4DFF-B212-EAFF5707199D}" name="Valor Pago" dataDxfId="14" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}" name="Tabela4" displayName="Tabela4" ref="A8:B13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
-  <autoFilter ref="A8:B13" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1D28A26F-4413-4393-9ACC-14324C9F39A2}" name="Tipo" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{F675DCBD-CF59-4985-9E47-F77D994126D4}" name="Valor" dataDxfId="18" dataCellStyle="Moeda"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}" name="Tabela6" displayName="Tabela6" ref="A18:C21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A18:C21" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C21">
+    <sortCondition ref="A18:A21"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1C9895AA-12F0-4D1E-B300-FB8DFFA09E54}" name="POSIÇÃO" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0D5817CC-6135-4614-B8B8-892CDF450365}" name="PAÍS" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{91E591DA-3A3D-4E9C-B466-2D427E8558C1}" name="VALOR" dataDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUMIF('Dados Gerais'!C2:C99,B19, 'Dados Gerais'!F2:F99)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Relatório de despesas de viagem" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A6163B19-04FC-45CC-917C-AC85E14F82BC}" name="Tabela5" displayName="Tabela5" ref="A15:A16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27" dataCellStyle="Moeda">
-  <autoFilter ref="A15:A16" xr:uid="{A6163B19-04FC-45CC-917C-AC85E14F82BC}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DD166145-9754-40EE-B979-945A7A702E9D}" name="Total" dataDxfId="15" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SUM(B9:B13) + SUM(E3:E4)</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}" name="Tabela4" displayName="Tabela4" ref="A8:B14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A8:B14" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1D28A26F-4413-4393-9ACC-14324C9F39A2}" name="Tipo" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F675DCBD-CF59-4985-9E47-F77D994126D4}" name="Valor" dataDxfId="7" dataCellStyle="Moeda"/>
   </tableColumns>
-  <tableStyleInfo name="Relatório de despesas de viagem" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2299,17 +2293,17 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.125" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
@@ -2318,141 +2312,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="35">
+        <v>7064.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="35">
+        <v>4842.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1510.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="35">
+        <v>5142.3100000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="E6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="35">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="40">
-        <v>7064.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="40">
-        <v>4842.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="40">
-        <v>1510.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="40">
-        <v>5142.3100000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="40">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="40">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="40">
+      <c r="E8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="35">
         <v>5842.63</v>
       </c>
     </row>
@@ -2498,7 +2492,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2508,65 +2502,65 @@
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="30"/>
+      <c r="A5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2578,212 +2572,265 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="2" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A1" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45168</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5.62</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1200</v>
+      </c>
+      <c r="E3" s="10">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45168</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>45168</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="11">
-        <v>5.62</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1200</v>
-      </c>
-      <c r="E3" s="13">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>45168</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>6.03</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>100</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <f>SUMIF('Dados Gerais'!C2:C97,A9, 'Dados Gerais'!F2:F97)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8">
         <f>SUMIF('Dados Gerais'!C2:C98,A10, 'Dados Gerais'!F2:F98)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
         <f>SUMIF('Dados Gerais'!C2:C99,A11, 'Dados Gerais'!F2:F99)</f>
         <v>15668.52</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="19">
+      <c r="A12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="16">
         <f>SUMIF('Dados Gerais'!C2:C100,A12, 'Dados Gerais'!F2:F100)</f>
         <v>13068.060000000001</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="19">
+      <c r="A13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="16">
         <f>SUMIF('Dados Gerais'!C2:C101,A13, 'Dados Gerais'!F2:F101)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="51">
+        <f>SUM(B9:B13) + SUM(E3:E6)</f>
+        <v>36083.58</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <f>SUM(B9:B13) + SUM(E3:E4)</f>
-        <v>36083.58</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="A17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
+        <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
+        <v>1</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="48">
+        <f>SUMIF('Dados Gerais'!B2:B100,B19, 'Dados Gerais'!F2:F100)</f>
+        <v>6653.2800000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
+        <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="41">
+        <f>SUMIF('Dados Gerais'!B2:B101,B20, 'Dados Gerais'!F2:F101)</f>
+        <v>10175.630000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
+        <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
+        <v>3</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="41">
+        <f>SUMIF('Dados Gerais'!B2:B99,B21, 'Dados Gerais'!F2:F99)</f>
+        <v>11907.67</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D83A1EE-034E-44C4-801D-79521A6E046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DEE93D-093A-41C8-830F-C19D9F33A76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Gerais" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -985,6 +985,39 @@
     <xf numFmtId="7" fontId="16" fillId="0" borderId="19" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="12" borderId="33" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="12" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="34" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="33" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="19" fillId="10" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,44 +1027,8 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="12" borderId="33" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="12" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="12" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="12" borderId="33" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="33" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="19" fillId="10" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1055,80 +1052,6 @@
     <cellStyle name="Total" xfId="3" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="11" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1261,6 +1184,80 @@
         </left>
         <right style="thin">
           <color theme="3"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="11" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
         </right>
         <top/>
         <bottom/>
@@ -2034,17 +2031,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}" name="Tabela6" displayName="Tabela6" ref="A18:C21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}" name="Tabela6" displayName="Tabela6" ref="A18:C21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A18:C21" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C21">
     <sortCondition ref="A18:A21"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C9895AA-12F0-4D1E-B300-FB8DFFA09E54}" name="POSIÇÃO" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{1C9895AA-12F0-4D1E-B300-FB8DFFA09E54}" name="POSIÇÃO" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0D5817CC-6135-4614-B8B8-892CDF450365}" name="PAÍS" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{91E591DA-3A3D-4E9C-B466-2D427E8558C1}" name="VALOR" dataDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="2" xr3:uid="{0D5817CC-6135-4614-B8B8-892CDF450365}" name="PAÍS" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{91E591DA-3A3D-4E9C-B466-2D427E8558C1}" name="VALOR" dataDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMIF('Dados Gerais'!C2:C99,B19, 'Dados Gerais'!F2:F99)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2053,11 +2050,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}" name="Tabela4" displayName="Tabela4" ref="A8:B14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}" name="Tabela4" displayName="Tabela4" ref="A8:B14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A8:B14" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1D28A26F-4413-4393-9ACC-14324C9F39A2}" name="Tipo" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F675DCBD-CF59-4985-9E47-F77D994126D4}" name="Valor" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{1D28A26F-4413-4393-9ACC-14324C9F39A2}" name="Tipo" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F675DCBD-CF59-4985-9E47-F77D994126D4}" name="Valor" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2292,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.125" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -2332,6 +2329,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="50">
+        <v>45175</v>
+      </c>
       <c r="B2" s="33" t="s">
         <v>7</v>
       </c>
@@ -2349,6 +2349,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
+        <v>45175</v>
+      </c>
       <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
@@ -2366,6 +2369,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="50">
+        <v>45175</v>
+      </c>
       <c r="B4" s="33" t="s">
         <v>8</v>
       </c>
@@ -2383,6 +2389,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>45175</v>
+      </c>
       <c r="B5" s="33" t="s">
         <v>8</v>
       </c>
@@ -2400,6 +2409,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>45169</v>
+      </c>
       <c r="B6" s="33" t="s">
         <v>9</v>
       </c>
@@ -2417,6 +2429,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
+        <v>45169</v>
+      </c>
       <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
@@ -2434,6 +2449,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
+        <v>45180</v>
+      </c>
       <c r="B8" s="33" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +2510,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2574,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2588,13 +2606,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2740,10 +2758,10 @@
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="46">
         <f>SUM(B9:B13) + SUM(E3:E6)</f>
         <v>36083.58</v>
       </c>
@@ -2758,67 +2776,67 @@
       <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="41">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>1</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="43">
         <f>SUMIF('Dados Gerais'!B2:B100,B19, 'Dados Gerais'!F2:F100)</f>
         <v>6653.2800000000007</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+      <c r="A20" s="40">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="38">
         <f>SUMIF('Dados Gerais'!B2:B101,B20, 'Dados Gerais'!F2:F101)</f>
         <v>10175.630000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="41">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>3</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="43">
         <f>SUMIF('Dados Gerais'!B2:B99,B21, 'Dados Gerais'!F2:F99)</f>
         <v>11907.67</v>
       </c>

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DEE93D-093A-41C8-830F-C19D9F33A76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A283D8F0-B080-4482-A71F-7C2ADBBEB234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="2655" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Gerais" sheetId="2" r:id="rId1"/>
@@ -1018,6 +1018,9 @@
     <xf numFmtId="7" fontId="19" fillId="10" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1026,9 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2289,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.125" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2329,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="50">
+      <c r="A2" s="47">
         <v>45175</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -2349,7 +2349,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="47">
         <v>45175</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -2369,7 +2369,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+      <c r="A4" s="47">
         <v>45175</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -2389,7 +2389,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="47">
         <v>45175</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -2409,7 +2409,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="A6" s="47">
         <v>45169</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -2429,7 +2429,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="47">
         <v>45169</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -2449,7 +2449,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+      <c r="A8" s="47">
         <v>45180</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -2475,6 +2475,9 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 #PÚBLICA#</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2582,6 +2585,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 #PÚBLICA#</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2592,7 +2598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2606,13 +2612,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2783,11 +2789,11 @@
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
@@ -2849,6 +2855,9 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 #PÚBLICA#</oddFooter>
+  </headerFooter>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A283D8F0-B080-4482-A71F-7C2ADBBEB234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23D23C2-703C-4408-BD1B-57A9AFF19BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2655" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="900" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Gerais" sheetId="2" r:id="rId1"/>
-    <sheet name="Tipo" sheetId="6" r:id="rId2"/>
-    <sheet name="Finanças" sheetId="3" r:id="rId3"/>
+    <sheet name="Finanças" sheetId="3" r:id="rId2"/>
+    <sheet name="Tipo" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados Gerais'!$B$1:$F$6</definedName>
@@ -24,6 +24,7 @@
     <definedName name="TotalDoReembolso">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>Hospedagem</t>
   </si>
@@ -152,6 +153,21 @@
   </si>
   <si>
     <t xml:space="preserve">Total: </t>
+  </si>
+  <si>
+    <t>Lindt House Of Chocolate</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Seguro Viagem</t>
+  </si>
+  <si>
+    <t>Vestuário</t>
+  </si>
+  <si>
+    <t>Luva, Balaclava, Segunda Pele(calça/Blusa), Meias</t>
   </si>
 </sst>
 </file>
@@ -991,21 +1007,9 @@
     <xf numFmtId="7" fontId="15" fillId="12" borderId="33" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="15" fillId="12" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="19" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="34" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="7" fontId="15" fillId="0" borderId="33" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,6 +1033,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="12" borderId="34" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1052,6 +1068,179 @@
     <cellStyle name="Total" xfId="3" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.89996032593768116"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1503,179 +1692,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="2" tint="-0.89996032593768116"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="2" tint="-0.89996032593768116"/>
         <name val="Century Gothic"/>
         <family val="2"/>
@@ -1971,7 +1987,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="Relatório de despesas de viagem" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Relatório de despesas de viagem" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="45"/>
       <tableStyleElement type="headerRow" dxfId="44"/>
@@ -2005,58 +2021,58 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}" name="Tabela1" displayName="Tabela1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:C6" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{61C04D36-233F-4345-8D0A-BB74D6229B16}" name="Países" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{F265D123-9FD0-445E-9F7A-8AED3BF4F64C}" name="Tipos" dataDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{A3022047-1543-4F89-9A41-72885D52B25A}" name="Moedas" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80044C7C-2CF6-437B-A81A-C0DF61DC78FF}" name="Tabela3" displayName="Tabela3" ref="A2:E6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80044C7C-2CF6-437B-A81A-C0DF61DC78FF}" name="Tabela3" displayName="Tabela3" ref="A2:E6" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A2:E6" xr:uid="{80044C7C-2CF6-437B-A81A-C0DF61DC78FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A403110D-48A9-4F7C-A320-44029F6CEBE0}" name="Data da Compra" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{7A3CDC48-C265-45A9-9510-767959D4F6BC}" name="Moeda" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{C4C62492-BF0E-46F5-8BC9-B0DFFFE8823E}" name="Cotação" dataDxfId="16" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{70929260-A73D-44EC-A45E-80FEA04E80F4}" name="Quantidade" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{7F51E899-4C24-4DFF-B212-EAFF5707199D}" name="Valor Pago" dataDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{A403110D-48A9-4F7C-A320-44029F6CEBE0}" name="Data da Compra" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{7A3CDC48-C265-45A9-9510-767959D4F6BC}" name="Moeda" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{C4C62492-BF0E-46F5-8BC9-B0DFFFE8823E}" name="Cotação" dataDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{70929260-A73D-44EC-A45E-80FEA04E80F4}" name="Quantidade" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{7F51E899-4C24-4DFF-B212-EAFF5707199D}" name="Valor Pago" dataDxfId="22" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}" name="Tabela6" displayName="Tabela6" ref="A18:C21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A18:C21" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C21">
-    <sortCondition ref="A18:A21"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}" name="Tabela6" displayName="Tabela6" ref="A20:C24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <autoFilter ref="A20:C24" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:C24">
+    <sortCondition ref="A20:A24"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C9895AA-12F0-4D1E-B300-FB8DFFA09E54}" name="POSIÇÃO" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{1C9895AA-12F0-4D1E-B300-FB8DFFA09E54}" name="POSIÇÃO" dataDxfId="17">
       <calculatedColumnFormula>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0D5817CC-6135-4614-B8B8-892CDF450365}" name="PAÍS" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{91E591DA-3A3D-4E9C-B466-2D427E8558C1}" name="VALOR" dataDxfId="7" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SUMIF('Dados Gerais'!C2:C99,B19, 'Dados Gerais'!F2:F99)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{0D5817CC-6135-4614-B8B8-892CDF450365}" name="PAÍS" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{91E591DA-3A3D-4E9C-B466-2D427E8558C1}" name="VALOR" dataDxfId="15" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUMIF('Dados Gerais'!C2:C99,B21, 'Dados Gerais'!F2:F99)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Relatório de despesas de viagem" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}" name="Tabela4" displayName="Tabela4" ref="A8:B14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A8:B14" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}" name="Tabela4" displayName="Tabela4" ref="A8:B16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A8:B16" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1D28A26F-4413-4393-9ACC-14324C9F39A2}" name="Tipo" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F675DCBD-CF59-4985-9E47-F77D994126D4}" name="Valor" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{1D28A26F-4413-4393-9ACC-14324C9F39A2}" name="Tipo" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F675DCBD-CF59-4985-9E47-F77D994126D4}" name="Valor" dataDxfId="8" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}" name="Tabela1" displayName="Tabela1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C8" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{61C04D36-233F-4345-8D0A-BB74D6229B16}" name="Países" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F265D123-9FD0-445E-9F7A-8AED3BF4F64C}" name="Tipos" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{A3022047-1543-4F89-9A41-72885D52B25A}" name="Moedas" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2297,8 +2313,8 @@
   <cols>
     <col min="1" max="1" width="18.5" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.625" style="34" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.625" customWidth="1"/>
@@ -2329,7 +2345,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+      <c r="A2" s="43">
         <v>45175</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -2349,7 +2365,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+      <c r="A3" s="43">
         <v>45175</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -2369,7 +2385,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="43">
         <v>45175</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -2389,7 +2405,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="A5" s="43">
         <v>45175</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -2409,7 +2425,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+      <c r="A6" s="43">
         <v>45169</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -2429,7 +2445,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+      <c r="A7" s="43">
         <v>45169</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -2449,7 +2465,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="A8" s="43">
         <v>45180</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -2466,6 +2482,66 @@
       </c>
       <c r="F8" s="35">
         <v>5842.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>45418</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="35">
+        <v>201.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>45413</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="35">
+        <v>547.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>45413</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="35">
+        <v>480.18</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.25">
@@ -2492,7 +2568,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C56F21DC-4C61-4B0F-BC9F-5B11F090759A}">
           <x14:formula1>
-            <xm:f>Tipo!$B$2:$B$6</xm:f>
+            <xm:f>Tipo!$B$2:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -2509,97 +2585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FABF960-F79B-465D-AA83-0514122FABE2}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 #PÚBLICA#</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2612,13 +2602,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2757,100 +2747,138 @@
       </c>
       <c r="B13" s="16">
         <f>SUMIF('Dados Gerais'!C2:C101,A13, 'Dados Gerais'!F2:F101)</f>
-        <v>0</v>
+        <v>201.96</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="46">
-        <f>SUM(B9:B13) + SUM(E3:E6)</f>
-        <v>36083.58</v>
+      <c r="A14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="16">
+        <f>SUMIF('Dados Gerais'!C3:C102,A14, 'Dados Gerais'!F3:F102)</f>
+        <v>480.18</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="16">
+        <f>SUMIF('Dados Gerais'!C4:C103,A15, 'Dados Gerais'!F4:F103)</f>
+        <v>547.98</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="42">
+        <f>SUM(B9:B13) + SUM(E3:E6)</f>
+        <v>36285.54</v>
+      </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B20" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C20" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="47">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>1</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="43">
-        <f>SUMIF('Dados Gerais'!B2:B100,B19, 'Dados Gerais'!F2:F100)</f>
-        <v>6653.2800000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="B21" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="37">
+        <f>SUMIF('Dados Gerais'!B3:B100,B21, 'Dados Gerais'!F3:F100)</f>
+        <v>1028.1600000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>2</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="38">
-        <f>SUMIF('Dados Gerais'!B2:B101,B20, 'Dados Gerais'!F2:F101)</f>
-        <v>10175.630000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="B22" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="50">
+        <f>SUMIF('Dados Gerais'!B2:B100,B22, 'Dados Gerais'!F2:F100)</f>
+        <v>6653.2800000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="47">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>3</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B23" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="37">
+        <f>SUMIF('Dados Gerais'!B2:B101,B23, 'Dados Gerais'!F2:F101)</f>
+        <v>10377.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
+        <v>4</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="43">
-        <f>SUMIF('Dados Gerais'!B2:B99,B21, 'Dados Gerais'!F2:F99)</f>
+      <c r="C24" s="50">
+        <f>SUMIF('Dados Gerais'!B2:B99,B24, 'Dados Gerais'!F2:F99)</f>
         <v>11907.67</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate link="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2864,4 +2892,104 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FABF960-F79B-465D-AA83-0514122FABE2}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28"/>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 #PÚBLICA#</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23D23C2-703C-4408-BD1B-57A9AFF19BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD9165-5353-47A7-852F-68116B71A61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="900" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="900" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Gerais" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="TotalDoReembolso">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1025,6 +1024,18 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="12" borderId="34" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,18 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="12" borderId="34" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2305,7 +2304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2588,7 +2587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2602,13 +2601,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2803,11 +2802,11 @@
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
@@ -2823,11 +2822,11 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="47">
+      <c r="A21" s="44">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>1</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="37">
@@ -2836,24 +2835,24 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="45">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>2</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="47">
         <f>SUMIF('Dados Gerais'!B2:B100,B22, 'Dados Gerais'!F2:F100)</f>
         <v>6653.2800000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+      <c r="A23" s="44">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>3</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="37">
@@ -2862,14 +2861,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="45">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>4</v>
       </c>
       <c r="B24" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="47">
         <f>SUMIF('Dados Gerais'!B2:B99,B24, 'Dados Gerais'!F2:F99)</f>
         <v>11907.67</v>
       </c>

--- a/despesas.xlsx
+++ b/despesas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilat2003_00\Desktop\Pessoais\Europa 06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD9165-5353-47A7-852F-68116B71A61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B5463-0C86-4020-BBFE-1D084438E418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="900" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="900" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Gerais" sheetId="2" r:id="rId1"/>
@@ -38,6 +38,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +913,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1033,9 +1055,6 @@
     <xf numFmtId="7" fontId="15" fillId="12" borderId="34" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="15" fillId="0" borderId="20" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1044,6 +1063,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="34" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1067,6 +1095,80 @@
     <cellStyle name="Total" xfId="3" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="11" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1372,80 +1474,6 @@
         </left>
         <right style="thin">
           <color theme="3"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="11" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
         </right>
         <top/>
         <bottom/>
@@ -2034,18 +2062,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}" name="Tabela6" displayName="Tabela6" ref="A20:C24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}" name="Tabela6" displayName="Tabela6" ref="A20:C24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
   <autoFilter ref="A20:C24" xr:uid="{DB1F7757-DB37-4699-AA71-9F16B70997C6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:C24">
     <sortCondition ref="A20:A24"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C9895AA-12F0-4D1E-B300-FB8DFFA09E54}" name="POSIÇÃO" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{1C9895AA-12F0-4D1E-B300-FB8DFFA09E54}" name="POSIÇÃO" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0D5817CC-6135-4614-B8B8-892CDF450365}" name="PAÍS" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{91E591DA-3A3D-4E9C-B466-2D427E8558C1}" name="VALOR" dataDxfId="15" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SUMIF('Dados Gerais'!C2:C99,B21, 'Dados Gerais'!F2:F99)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{0D5817CC-6135-4614-B8B8-892CDF450365}" name="PAÍS" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{91E591DA-3A3D-4E9C-B466-2D427E8558C1}" name="VALOR" dataDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula array="1">SUMPRODUCT(('Dados Gerais'!B3:B100 = B21) * ('Dados Gerais'!C3:C100 &lt;&gt; "Transporte Aéreo") * 'Dados Gerais'!F3:F100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Relatório de despesas de viagem" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2053,23 +2081,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}" name="Tabela4" displayName="Tabela4" ref="A8:B16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}" name="Tabela4" displayName="Tabela4" ref="A8:B16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A8:B16" xr:uid="{FAA36B1E-E6C9-420F-BE73-7312C2F560B3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1D28A26F-4413-4393-9ACC-14324C9F39A2}" name="Tipo" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F675DCBD-CF59-4985-9E47-F77D994126D4}" name="Valor" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{1D28A26F-4413-4393-9ACC-14324C9F39A2}" name="Tipo" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F675DCBD-CF59-4985-9E47-F77D994126D4}" name="Valor" dataDxfId="15" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}" name="Tabela1" displayName="Tabela1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}" name="Tabela1" displayName="Tabela1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:C8" xr:uid="{8971517F-9158-4FB0-A3A5-4CA3947E3CDF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{61C04D36-233F-4345-8D0A-BB74D6229B16}" name="Países" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F265D123-9FD0-445E-9F7A-8AED3BF4F64C}" name="Tipos" dataDxfId="1" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{A3022047-1543-4F89-9A41-72885D52B25A}" name="Moedas" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{61C04D36-233F-4345-8D0A-BB74D6229B16}" name="Países" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F265D123-9FD0-445E-9F7A-8AED3BF4F64C}" name="Tipos" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{A3022047-1543-4F89-9A41-72885D52B25A}" name="Moedas" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2304,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE77B6-366C-4730-A58A-C0C13BE3675F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.125" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -2587,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50BE8B2-990A-4D87-83F2-E814EEC1B90B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2601,13 +2629,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2802,11 +2830,11 @@
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
@@ -2829,35 +2857,35 @@
       <c r="B21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="37">
-        <f>SUMIF('Dados Gerais'!B3:B100,B21, 'Dados Gerais'!F3:F100)</f>
+      <c r="C21" s="37" cm="1">
+        <f t="array" ref="C21">SUMPRODUCT(('Dados Gerais'!B2:B100 = B21) * ('Dados Gerais'!C2:C100 &lt;&gt; "Transporte Aéreo") * 'Dados Gerais'!F2:F100)</f>
         <v>1028.1600000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="51">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>2</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="47">
-        <f>SUMIF('Dados Gerais'!B2:B100,B22, 'Dados Gerais'!F2:F100)</f>
-        <v>6653.2800000000007</v>
+      <c r="B22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="37" cm="1">
+        <f t="array" ref="C22">SUMPRODUCT(('Dados Gerais'!B2:B102 = B22) * ('Dados Gerais'!C2:C102 &lt;&gt; "Transporte Aéreo") * 'Dados Gerais'!F2:F102)</f>
+        <v>3284.96</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="44">
+      <c r="A23" s="50">
         <f>_xlfn.RANK.EQ(Tabela6[[#This Row],[VALOR]],Tabela6[VALOR],1)</f>
         <v>3</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="37">
-        <f>SUMIF('Dados Gerais'!B2:B101,B23, 'Dados Gerais'!F2:F101)</f>
-        <v>10377.59</v>
+      <c r="B23" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="37" cm="1">
+        <f t="array" ref="C23">SUMPRODUCT(('Dados Gerais'!B2:B103 = B23) * ('Dados Gerais'!C2:C103 &lt;&gt; "Transporte Aéreo") * 'Dados Gerais'!F2:F103)</f>
+        <v>4842.75</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
@@ -2866,11 +2894,11 @@
         <v>4</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="47">
-        <f>SUMIF('Dados Gerais'!B2:B99,B24, 'Dados Gerais'!F2:F99)</f>
-        <v>11907.67</v>
+        <v>8</v>
+      </c>
+      <c r="C24" s="37" cm="1">
+        <f t="array" ref="C24">SUMPRODUCT(('Dados Gerais'!B2:B101 = B24) * ('Dados Gerais'!C2:C101 &lt;&gt; "Transporte Aéreo") * 'Dados Gerais'!F2:F101)</f>
+        <v>5142.3100000000004</v>
       </c>
     </row>
   </sheetData>
